--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1948283.667084799</v>
+        <v>-1951143.499320069</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>165.1725371760945</v>
+        <v>187.52558716632</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>83.84654409195076</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>74.44994734243251</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>187.52558716632</v>
       </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,22 +789,22 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>43.18156339663366</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>168.2650082792744</v>
       </c>
       <c r="W3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>52.21594625443466</v>
       </c>
     </row>
     <row r="5">
@@ -911,10 +911,10 @@
         <v>12.42254329489923</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.978013057777</v>
       </c>
       <c r="I5" t="n">
-        <v>99.43720189476441</v>
+        <v>99.43720189476443</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>210.4877993650491</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1152373702176</v>
+        <v>148.3467386333556</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>194.2793850632474</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>382.6612299361373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,25 +975,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8024773971665</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>46.46465121295533</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.99985954238376</v>
+        <v>49.99985954238377</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0590333442029</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>193.9532570062491</v>
@@ -1032,16 +1032,16 @@
         <v>225.8399978858403</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>57.71019864452301</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>161.2789893751503</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>45.96196718661812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>43.32130647461314</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>269.1152538431683</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.87073484362677</v>
+        <v>107.4915552222431</v>
       </c>
       <c r="H8" t="n">
-        <v>69.65948964087796</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904878</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721419</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>20.27697994470972</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>23.71833277169909</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923912</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>19.17644954995972</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>66.38333237532392</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634796</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072265</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187834</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>79.05856366754516</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856542</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>280.3460310779739</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569552</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>81.27859867330349</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U16" t="n">
-        <v>251.0718348128935</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206834</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012157</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797044</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695517</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428419</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012156</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695516</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012154</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673023</v>
+        <v>147.68953414874</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>94.80184639741353</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>99.97427419833861</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2843,7 +2843,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>104.8913819999787</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3187,10 +3187,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3199,13 +3199,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,10 +3424,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3436,13 +3436,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,10 +3898,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3910,13 +3910,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>371.2627786323101</v>
+        <v>560.6825636487953</v>
       </c>
       <c r="C2" t="n">
-        <v>181.8429936158253</v>
+        <v>371.2627786323104</v>
       </c>
       <c r="D2" t="n">
-        <v>181.8429936158253</v>
+        <v>371.2627786323104</v>
       </c>
       <c r="E2" t="n">
-        <v>15.0020469733056</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="F2" t="n">
-        <v>15.0020469733056</v>
+        <v>174.8974928666221</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>90.20401398586371</v>
       </c>
       <c r="H2" t="n">
         <v>15.0020469733056</v>
@@ -4328,52 +4328,52 @@
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678535</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058996</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079189</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="U2" t="n">
-        <v>560.6825636487949</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="V2" t="n">
-        <v>560.6825636487949</v>
+        <v>560.6825636487953</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487949</v>
+        <v>560.6825636487953</v>
       </c>
       <c r="X2" t="n">
-        <v>371.2627786323101</v>
+        <v>560.6825636487953</v>
       </c>
       <c r="Y2" t="n">
-        <v>371.2627786323101</v>
+        <v>560.6825636487953</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.361962382226</v>
+        <v>428.8546183923266</v>
       </c>
       <c r="C3" t="n">
-        <v>176.361962382226</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="D3" t="n">
-        <v>176.361962382226</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="E3" t="n">
-        <v>176.361962382226</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="F3" t="n">
-        <v>176.361962382226</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="G3" t="n">
-        <v>176.361962382226</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
         <v>15.0020469733056</v>
@@ -4410,49 +4410,49 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024242</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476351</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198761</v>
+        <v>598.8192732198765</v>
       </c>
       <c r="T3" t="n">
-        <v>555.2015324151956</v>
+        <v>598.8192732198765</v>
       </c>
       <c r="U3" t="n">
-        <v>555.2015324151956</v>
+        <v>598.8192732198765</v>
       </c>
       <c r="V3" t="n">
-        <v>555.2015324151956</v>
+        <v>428.8546183923266</v>
       </c>
       <c r="W3" t="n">
-        <v>365.7817473987108</v>
+        <v>428.8546183923266</v>
       </c>
       <c r="X3" t="n">
-        <v>365.7817473987108</v>
+        <v>428.8546183923266</v>
       </c>
       <c r="Y3" t="n">
-        <v>176.361962382226</v>
+        <v>428.8546183923266</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
         <v>15.0020469733056</v>
@@ -4492,46 +4492,46 @@
         <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230176</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>150.5480407498153</v>
+        <v>463.65714484858</v>
       </c>
       <c r="C5" t="n">
-        <v>150.5480407498153</v>
+        <v>463.65714484858</v>
       </c>
       <c r="D5" t="n">
-        <v>150.5480407498153</v>
+        <v>463.65714484858</v>
       </c>
       <c r="E5" t="n">
-        <v>150.5480407498153</v>
+        <v>463.65714484858</v>
       </c>
       <c r="F5" t="n">
-        <v>143.6025400006118</v>
+        <v>456.7116440993765</v>
       </c>
       <c r="G5" t="n">
-        <v>131.0545164704106</v>
+        <v>444.1636205691753</v>
       </c>
       <c r="H5" t="n">
         <v>131.0545164704106</v>
       </c>
       <c r="I5" t="n">
-        <v>30.61289839489098</v>
+        <v>30.61289839489097</v>
       </c>
       <c r="J5" t="n">
-        <v>93.38580827121416</v>
+        <v>93.38580827121393</v>
       </c>
       <c r="K5" t="n">
-        <v>238.2046462235825</v>
+        <v>238.2046462235822</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7669823190607</v>
+        <v>454.7669823190604</v>
       </c>
       <c r="M5" t="n">
-        <v>727.4037457643038</v>
+        <v>727.4037457643035</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.065865453885</v>
+        <v>1009.065865453884</v>
       </c>
       <c r="O5" t="n">
         <v>1261.696156831925</v>
       </c>
       <c r="P5" t="n">
-        <v>1442.809264855768</v>
+        <v>1442.809264855767</v>
       </c>
       <c r="Q5" t="n">
-        <v>1530.644919744549</v>
+        <v>1530.644919744548</v>
       </c>
       <c r="R5" t="n">
-        <v>1530.644919744549</v>
+        <v>1530.644919744548</v>
       </c>
       <c r="S5" t="n">
-        <v>1530.644919744549</v>
+        <v>1530.644919744548</v>
       </c>
       <c r="T5" t="n">
         <v>1318.030980991974</v>
       </c>
       <c r="U5" t="n">
-        <v>1064.379226072562</v>
+        <v>1168.185790453231</v>
       </c>
       <c r="V5" t="n">
-        <v>733.3163387289918</v>
+        <v>837.1229031096599</v>
       </c>
       <c r="W5" t="n">
-        <v>733.3163387289918</v>
+        <v>837.1229031096599</v>
       </c>
       <c r="X5" t="n">
-        <v>537.0745356348025</v>
+        <v>463.65714484858</v>
       </c>
       <c r="Y5" t="n">
-        <v>150.5480407498153</v>
+        <v>463.65714484858</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>520.4931220907563</v>
+        <v>354.0003373372692</v>
       </c>
       <c r="C6" t="n">
-        <v>520.4931220907563</v>
+        <v>179.5473080561422</v>
       </c>
       <c r="D6" t="n">
-        <v>520.4931220907563</v>
+        <v>30.61289839489097</v>
       </c>
       <c r="E6" t="n">
-        <v>361.2556670853008</v>
+        <v>30.61289839489097</v>
       </c>
       <c r="F6" t="n">
-        <v>214.7211091121858</v>
+        <v>30.61289839489097</v>
       </c>
       <c r="G6" t="n">
-        <v>77.54688951908828</v>
+        <v>30.61289839489097</v>
       </c>
       <c r="H6" t="n">
-        <v>77.54688951908828</v>
+        <v>30.61289839489097</v>
       </c>
       <c r="I6" t="n">
-        <v>30.61289839489098</v>
+        <v>30.61289839489097</v>
       </c>
       <c r="J6" t="n">
-        <v>49.18216652275235</v>
+        <v>49.18216652275231</v>
       </c>
       <c r="K6" t="n">
         <v>159.0748281477034</v>
       </c>
       <c r="L6" t="n">
-        <v>353.1616144543693</v>
+        <v>353.1616144543692</v>
       </c>
       <c r="M6" t="n">
-        <v>599.0086077642201</v>
+        <v>599.00860776422</v>
       </c>
       <c r="N6" t="n">
-        <v>865.77108436217</v>
+        <v>865.7710843621699</v>
       </c>
       <c r="O6" t="n">
         <v>1087.58683897054</v>
@@ -4671,25 +4671,25 @@
         <v>1251.938857051809</v>
       </c>
       <c r="S6" t="n">
-        <v>1107.434782966756</v>
+        <v>1251.938857051809</v>
       </c>
       <c r="T6" t="n">
-        <v>911.522402152363</v>
+        <v>1056.026476237416</v>
       </c>
       <c r="U6" t="n">
-        <v>683.4011921666657</v>
+        <v>827.9052662517186</v>
       </c>
       <c r="V6" t="n">
-        <v>683.4011921666657</v>
+        <v>769.6121363077559</v>
       </c>
       <c r="W6" t="n">
-        <v>683.4011921666657</v>
+        <v>769.6121363077559</v>
       </c>
       <c r="X6" t="n">
-        <v>520.4931220907563</v>
+        <v>561.7606361022231</v>
       </c>
       <c r="Y6" t="n">
-        <v>520.4931220907563</v>
+        <v>354.0003373372692</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77.03912787632342</v>
+        <v>30.61289839489097</v>
       </c>
       <c r="C7" t="n">
-        <v>77.03912787632342</v>
+        <v>30.61289839489097</v>
       </c>
       <c r="D7" t="n">
-        <v>77.03912787632342</v>
+        <v>30.61289839489097</v>
       </c>
       <c r="E7" t="n">
-        <v>77.03912787632342</v>
+        <v>30.61289839489097</v>
       </c>
       <c r="F7" t="n">
-        <v>77.03912787632342</v>
+        <v>30.61289839489097</v>
       </c>
       <c r="G7" t="n">
-        <v>77.03912787632342</v>
+        <v>30.61289839489097</v>
       </c>
       <c r="H7" t="n">
-        <v>77.03912787632342</v>
+        <v>30.61289839489097</v>
       </c>
       <c r="I7" t="n">
-        <v>30.61289839489098</v>
+        <v>30.61289839489097</v>
       </c>
       <c r="J7" t="n">
-        <v>30.61289839489098</v>
+        <v>30.61289839489097</v>
       </c>
       <c r="K7" t="n">
-        <v>51.49054881713184</v>
+        <v>51.49054881713182</v>
       </c>
       <c r="L7" t="n">
         <v>108.1125511363471</v>
       </c>
       <c r="M7" t="n">
-        <v>171.0707966055965</v>
+        <v>171.0707966055964</v>
       </c>
       <c r="N7" t="n">
-        <v>240.3895616221329</v>
+        <v>240.3895616221328</v>
       </c>
       <c r="O7" t="n">
-        <v>284.1035717645215</v>
+        <v>284.1035717645213</v>
       </c>
       <c r="P7" t="n">
-        <v>302.4464881354653</v>
+        <v>302.4464881354651</v>
       </c>
       <c r="Q7" t="n">
-        <v>258.6875927065631</v>
+        <v>302.4464881354651</v>
       </c>
       <c r="R7" t="n">
-        <v>258.6875927065631</v>
+        <v>302.4464881354651</v>
       </c>
       <c r="S7" t="n">
-        <v>258.6875927065631</v>
+        <v>302.4464881354651</v>
       </c>
       <c r="T7" t="n">
-        <v>258.6875927065631</v>
+        <v>302.4464881354651</v>
       </c>
       <c r="U7" t="n">
-        <v>258.6875927065631</v>
+        <v>30.61289839489097</v>
       </c>
       <c r="V7" t="n">
-        <v>258.6875927065631</v>
+        <v>30.61289839489097</v>
       </c>
       <c r="W7" t="n">
-        <v>258.6875927065631</v>
+        <v>30.61289839489097</v>
       </c>
       <c r="X7" t="n">
-        <v>258.6875927065631</v>
+        <v>30.61289839489097</v>
       </c>
       <c r="Y7" t="n">
-        <v>258.6875927065631</v>
+        <v>30.61289839489097</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1649.725331578667</v>
+        <v>886.120241341775</v>
       </c>
       <c r="C8" t="n">
-        <v>1280.762814638256</v>
+        <v>517.1577244013633</v>
       </c>
       <c r="D8" t="n">
-        <v>922.4971160315054</v>
+        <v>158.8920257946128</v>
       </c>
       <c r="E8" t="n">
-        <v>536.7088634332611</v>
+        <v>158.8920257946128</v>
       </c>
       <c r="F8" t="n">
-        <v>125.7229586436535</v>
+        <v>151.9465250454094</v>
       </c>
       <c r="G8" t="n">
-        <v>113.7323173874648</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J8" t="n">
-        <v>152.507818430191</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232736</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711894</v>
+        <v>669.5878927711875</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578733</v>
+        <v>1038.148464578731</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135171</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545601</v>
+        <v>1761.9606125456</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172452</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904658</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904658</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642789</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642789</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="U8" t="n">
-        <v>2036.325171642789</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="V8" t="n">
-        <v>2036.325171642789</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="W8" t="n">
-        <v>2036.325171642789</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="X8" t="n">
-        <v>2036.325171642789</v>
+        <v>1662.859413381708</v>
       </c>
       <c r="Y8" t="n">
-        <v>2036.325171642789</v>
+        <v>1272.720081405897</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>471.6041411273256</v>
+        <v>672.528648459042</v>
       </c>
       <c r="C9" t="n">
-        <v>471.6041411273256</v>
+        <v>498.075619177915</v>
       </c>
       <c r="D9" t="n">
-        <v>471.6041411273256</v>
+        <v>349.1412095166637</v>
       </c>
       <c r="E9" t="n">
-        <v>312.3666861218701</v>
+        <v>189.9037545112082</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3666861218701</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G9" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581921</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562348</v>
+        <v>89.55356510562345</v>
       </c>
       <c r="K9" t="n">
         <v>246.6448318504525</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104406</v>
+        <v>504.1959674104405</v>
       </c>
       <c r="M9" t="n">
         <v>824.1028628789504</v>
@@ -4905,28 +4905,28 @@
         <v>1766.22704733349</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972668</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474386</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="T9" t="n">
-        <v>1400.563316948362</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="U9" t="n">
-        <v>1376.605405057757</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="V9" t="n">
-        <v>1141.453296826014</v>
+        <v>1510.593141177798</v>
       </c>
       <c r="W9" t="n">
-        <v>887.2159400978123</v>
+        <v>1256.355784449597</v>
       </c>
       <c r="X9" t="n">
-        <v>679.3644398922795</v>
+        <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>471.6041411273256</v>
+        <v>840.7439854791101</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.5020259430748</v>
+        <v>209.6199763217379</v>
       </c>
       <c r="C10" t="n">
-        <v>211.5020259430748</v>
+        <v>209.6199763217379</v>
       </c>
       <c r="D10" t="n">
-        <v>211.5020259430748</v>
+        <v>209.6199763217379</v>
       </c>
       <c r="E10" t="n">
-        <v>211.5020259430748</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="F10" t="n">
-        <v>211.5020259430748</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809316</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809316</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809316</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981553</v>
+        <v>92.71685897981551</v>
       </c>
       <c r="L10" t="n">
         <v>185.7706748018947</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927341</v>
+        <v>287.141159492734</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377472</v>
+        <v>393.9588065377471</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033673</v>
+        <v>472.3091036033672</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406008</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="Q10" t="n">
-        <v>500.9191959800354</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="R10" t="n">
-        <v>500.9191959800354</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="S10" t="n">
-        <v>500.9191959800354</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="T10" t="n">
-        <v>500.9191959800354</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="U10" t="n">
-        <v>500.9191959800354</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="V10" t="n">
-        <v>500.9191959800354</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="W10" t="n">
-        <v>211.5020259430748</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="X10" t="n">
-        <v>211.5020259430748</v>
+        <v>430.412555465268</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.5020259430748</v>
+        <v>209.6199763217379</v>
       </c>
     </row>
     <row r="11">
@@ -5024,37 +5024,37 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406465</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168579</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951537</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703114</v>
+        <v>929.7309773356192</v>
       </c>
       <c r="C13" t="n">
-        <v>695.5020655703114</v>
+        <v>929.7309773356192</v>
       </c>
       <c r="D13" t="n">
-        <v>545.3854261579756</v>
+        <v>779.6143379232834</v>
       </c>
       <c r="E13" t="n">
-        <v>397.4723325755825</v>
+        <v>631.7012443408903</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>484.81129684298</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
@@ -5194,31 +5194,31 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
@@ -5236,13 +5236,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1150.523556479149</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1150.523556479149</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>929.7309773356192</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,55 +5264,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.7772127656159</v>
+        <v>762.547769317911</v>
       </c>
       <c r="C16" t="n">
-        <v>782.841029837709</v>
+        <v>762.547769317911</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>612.4311299055754</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>464.5180363231824</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6280888252721</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5443,43 +5443,43 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910815</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570823</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279808</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853366</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580266</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832668</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832668</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832668</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U16" t="n">
-        <v>2126.309465880251</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.624977674364</v>
+        <v>1500.747069396419</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.207807637403</v>
+        <v>1211.329899359458</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>983.3403484614411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>762.547769317911</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5492,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,49 +5516,49 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1307.627092998425</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998425</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188003</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="E19" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057736</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166295</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189236</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533434</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327547</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925698</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490398</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168608</v>
       </c>
       <c r="G20" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1501.840175011101</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121667</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121667</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121667</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121667</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270468</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5944,16 +5944,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713843</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703131</v>
       </c>
     </row>
     <row r="23">
@@ -5981,58 +5981,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,10 +6060,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6078,10 +6078,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708866</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.27973288552</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679634</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642673</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744656</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011261</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192548</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273905</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>692.9625378792909</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1320.560501433898</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>801.6918836311994</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998291</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998291</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998291</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797747</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,10 +6458,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075811</v>
@@ -6470,7 +6470,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6479,7 +6479,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
@@ -6491,10 +6491,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,19 +6598,19 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797189</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,16 +6771,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6871,19 +6871,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6932,16 +6932,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694708</v>
@@ -6962,13 +6962,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384024</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7348,31 +7348,31 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7403,46 +7403,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.825546038073</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,10 +7643,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192412</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075794</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,13 +7819,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046876</v>
+        <v>177.7473046046875</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>216.7578328961673</v>
+        <v>194.4047829059417</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>329.2512891381073</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22592,28 +22592,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871038</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038149</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121491</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>66.32703400292141</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-3.183231456205249e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>66.36248435538609</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>6.17696725861714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>84.24553961896524</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856542</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012157</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>35.11263957635066</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>116.6691671648107</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856542</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>57.22910392194007</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392193955</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856541</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194188</v>
+        <v>138.494940240504</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>72.44497470121431</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>65.54986409393024</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>41.54258064659051</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1100138.915813092</v>
+        <v>1100138.915813091</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1326251.879656556</v>
+        <v>1326251.879656557</v>
       </c>
     </row>
     <row r="6">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84626.07044716089</v>
+        <v>84626.07044716076</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26338,10 +26338,10 @@
         <v>100893.3249612508</v>
       </c>
       <c r="K2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="L2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="M2" t="n">
         <v>102630.2212330355</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>216004.0468996488</v>
+        <v>216004.0468996484</v>
       </c>
       <c r="D3" t="n">
-        <v>167084.5112960646</v>
+        <v>167084.5112960647</v>
       </c>
       <c r="E3" t="n">
         <v>601443.207574264</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>50221.6701083824</v>
+        <v>50221.67010838234</v>
       </c>
       <c r="L3" t="n">
-        <v>59784.02116064657</v>
+        <v>59784.02116064655</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515976</v>
+        <v>157146.3805515978</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196327.1528969923</v>
+        <v>196327.1528969919</v>
       </c>
       <c r="C4" t="n">
         <v>221112.0537468122</v>
@@ -26424,40 +26424,40 @@
         <v>174202.9900888973</v>
       </c>
       <c r="E4" t="n">
+        <v>15436.64000687983</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15436.64000687976</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15436.6400068798</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15436.6400068798</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15436.64000687977</v>
+      </c>
+      <c r="J4" t="n">
         <v>15436.64000687971</v>
       </c>
-      <c r="F4" t="n">
-        <v>15436.64000687972</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
         <v>15436.64000687965</v>
       </c>
-      <c r="H4" t="n">
-        <v>15436.64000687965</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15436.64000687964</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15436.64000687961</v>
-      </c>
       <c r="L4" t="n">
-        <v>23427.49926997311</v>
+        <v>23427.49926997319</v>
       </c>
       <c r="M4" t="n">
-        <v>23427.49926997311</v>
+        <v>23427.49926997308</v>
       </c>
       <c r="N4" t="n">
-        <v>23427.4992699731</v>
+        <v>23427.49926997316</v>
       </c>
       <c r="O4" t="n">
-        <v>23427.4992699731</v>
+        <v>23427.49926997312</v>
       </c>
       <c r="P4" t="n">
-        <v>23427.49926997313</v>
+        <v>23427.49926997312</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>72511.97598790094</v>
+        <v>72511.97598790092</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587233</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-760043.7853822904</v>
+        <v>-760403.8683980078</v>
       </c>
       <c r="C6" t="n">
-        <v>-406997.8554013264</v>
+        <v>-406997.8554013261</v>
       </c>
       <c r="D6" t="n">
-        <v>-323856.3620077988</v>
+        <v>-323856.362007799</v>
       </c>
       <c r="E6" t="n">
-        <v>-617109.0524438</v>
+        <v>-617143.7903692359</v>
       </c>
       <c r="F6" t="n">
-        <v>-15665.8448695362</v>
+        <v>-15700.58279497179</v>
       </c>
       <c r="G6" t="n">
-        <v>-15665.84486953603</v>
+        <v>-15700.58279497185</v>
       </c>
       <c r="H6" t="n">
-        <v>-15665.84486953603</v>
+        <v>-15700.58279497184</v>
       </c>
       <c r="I6" t="n">
-        <v>-15665.844869536</v>
+        <v>-15700.58279497176</v>
       </c>
       <c r="J6" t="n">
-        <v>-64730.78959808057</v>
+        <v>-64765.52752351636</v>
       </c>
       <c r="K6" t="n">
-        <v>-65887.51497791838</v>
+        <v>-65922.25290335405</v>
       </c>
       <c r="L6" t="n">
-        <v>-83745.41505149966</v>
+        <v>-83745.41505149963</v>
       </c>
       <c r="M6" t="n">
-        <v>-181107.7744424507</v>
+        <v>-181107.7744424508</v>
       </c>
       <c r="N6" t="n">
-        <v>-23961.39389085326</v>
+        <v>-23961.39389085319</v>
       </c>
       <c r="O6" t="n">
-        <v>-23961.39389085308</v>
+        <v>-23961.39389085311</v>
       </c>
       <c r="P6" t="n">
-        <v>-23961.39389085307</v>
+        <v>-23961.39389085305</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.147788907838168e-14</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="F2" t="n">
-        <v>3.147788907838168e-14</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>3.147788907838168e-14</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="H2" t="n">
-        <v>3.147788907838168e-14</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>3.147788907838168e-14</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203969</v>
       </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>716.4483122836604</v>
+        <v>716.4483122836602</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376851</v>
@@ -26750,7 +26750,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26790,25 +26790,25 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>382.6612299361373</v>
+        <v>382.6612299361371</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261646</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26817,16 +26817,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.147788907838168e-14</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>167.9783713707558</v>
+        <v>167.9783713707554</v>
       </c>
       <c r="D3" t="n">
-        <v>137.2623522540248</v>
+        <v>137.2623522540249</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039888</v>
+        <v>514.2648358039886</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>195.1356427698173</v>
+        <v>195.1356427698171</v>
       </c>
       <c r="D4" t="n">
         <v>159.4537267900273</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734836</v>
+        <v>630.593331373484</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698175</v>
+        <v>195.1356427698173</v>
       </c>
       <c r="L4" t="n">
         <v>159.4537267900273</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734836</v>
+        <v>630.5933313734845</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.147788907838168e-14</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698173</v>
+        <v>195.1356427698171</v>
       </c>
       <c r="L4" t="n">
         <v>159.4537267900273</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734836</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>242.4438787637898</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27470,16 +27470,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>152.2280343953676</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>64.53557887015089</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459965</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098441</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>26.87806776557541</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>166.3687070976601</v>
       </c>
     </row>
     <row r="5">
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.978013057777</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.66253762724375</v>
+        <v>34.66253762724378</v>
       </c>
       <c r="S5" t="n">
         <v>143.3876437926216</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>102.768498736862</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>175.4517156152216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.576708719916326</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,25 +27695,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8024773971665</v>
       </c>
       <c r="H6" t="n">
         <v>97.35224439075476</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>46.46465121295534</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0590333442029</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27752,16 +27752,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>175.0903885049023</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>44.49399582832714</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27792,10 +27792,10 @@
         <v>150.7405094023015</v>
       </c>
       <c r="I7" t="n">
-        <v>70.63586811712625</v>
+        <v>116.5978353037444</v>
       </c>
       <c r="J7" t="n">
-        <v>35.65413415037929</v>
+        <v>35.65413415037931</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>43.32130647461315</v>
       </c>
       <c r="R7" t="n">
         <v>119.2023528106944</v>
@@ -27828,7 +27828,7 @@
         <v>222.4254139074074</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2485590306925</v>
+        <v>17.13330518752417</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>304.3791796213837</v>
       </c>
       <c r="H8" t="n">
-        <v>234.667315115305</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
         <v>78.16360657708285</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>117.2980339485895</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>202.1022411963694</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
         <v>148.5398113612452</v>
@@ -28032,7 +28032,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923912</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.41824173429567</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>108.0728512656385</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>159.3263230137132</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.56674739427399e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28099,10 +28099,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>3.249420542691075e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28257,16 +28257,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28296,13 +28296,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>5.184862824795086e-12</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1.024777635492114e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
     </row>
     <row r="26">
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31042,46 +31042,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,34 +31133,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31221,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31288,31 +31288,31 @@
         <v>244.45288419974</v>
       </c>
       <c r="K5" t="n">
-        <v>366.3715055423223</v>
+        <v>366.3715055423222</v>
       </c>
       <c r="L5" t="n">
-        <v>454.5162494098643</v>
+        <v>454.5162494098642</v>
       </c>
       <c r="M5" t="n">
-        <v>505.736903373983</v>
+        <v>505.7369033739829</v>
       </c>
       <c r="N5" t="n">
-        <v>513.9202552022281</v>
+        <v>513.920255202228</v>
       </c>
       <c r="O5" t="n">
-        <v>485.2803239247581</v>
+        <v>485.280323924758</v>
       </c>
       <c r="P5" t="n">
-        <v>414.1755291126863</v>
+        <v>414.1755291126862</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.028573600491</v>
+        <v>311.0285736004909</v>
       </c>
       <c r="R5" t="n">
-        <v>180.9230001868884</v>
+        <v>180.9230001868883</v>
       </c>
       <c r="S5" t="n">
-        <v>65.63242579362378</v>
+        <v>65.63242579362377</v>
       </c>
       <c r="T5" t="n">
         <v>12.6080501990823</v>
@@ -31361,34 +31361,34 @@
         <v>14.8831998457417</v>
       </c>
       <c r="I6" t="n">
-        <v>53.05772878704467</v>
+        <v>53.05772878704466</v>
       </c>
       <c r="J6" t="n">
-        <v>145.594463159456</v>
+        <v>145.5944631594559</v>
       </c>
       <c r="K6" t="n">
         <v>248.8441274844106</v>
       </c>
       <c r="L6" t="n">
-        <v>334.6016386754963</v>
+        <v>334.6016386754962</v>
       </c>
       <c r="M6" t="n">
         <v>390.4643301945948</v>
       </c>
       <c r="N6" t="n">
-        <v>400.7987591519696</v>
+        <v>400.7987591519695</v>
       </c>
       <c r="O6" t="n">
         <v>366.6525622306766</v>
       </c>
       <c r="P6" t="n">
-        <v>294.2710058510001</v>
+        <v>294.271005851</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7123743462609</v>
+        <v>196.7123743462608</v>
       </c>
       <c r="R6" t="n">
-        <v>95.67964442158019</v>
+        <v>95.67964442158018</v>
       </c>
       <c r="S6" t="n">
         <v>28.6241377596349</v>
@@ -31440,22 +31440,22 @@
         <v>11.48666310513804</v>
       </c>
       <c r="I7" t="n">
-        <v>38.85263962351392</v>
+        <v>38.85263962351391</v>
       </c>
       <c r="J7" t="n">
-        <v>91.34128728901682</v>
+        <v>91.3412872890168</v>
       </c>
       <c r="K7" t="n">
         <v>150.1017939505766</v>
       </c>
       <c r="L7" t="n">
-        <v>192.0786180178194</v>
+        <v>192.0786180178193</v>
       </c>
       <c r="M7" t="n">
-        <v>202.5199712902812</v>
+        <v>202.5199712902811</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7044990273912</v>
+        <v>197.7044990273911</v>
       </c>
       <c r="O7" t="n">
         <v>182.6121042522353</v>
@@ -31467,16 +31467,16 @@
         <v>108.1836951548327</v>
       </c>
       <c r="R7" t="n">
-        <v>58.09103856647513</v>
+        <v>58.09103856647512</v>
       </c>
       <c r="S7" t="n">
-        <v>22.5152690925865</v>
+        <v>22.51526909258649</v>
       </c>
       <c r="T7" t="n">
-        <v>5.520175520874102</v>
+        <v>5.520175520874101</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07047032579839289</v>
+        <v>0.07047032579839288</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532619</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>491.597732526532</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>405.637736314577</v>
+        <v>189.0011860883002</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>379.4203056753712</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>575.5951359912051</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32622,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,22 +32789,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,34 +33020,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O27" t="n">
-        <v>687.0167715190033</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33257,7 +33257,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817571</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
         <v>867.8464071162563</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669224</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L41" t="n">
         <v>867.8464071162563</v>
@@ -34205,7 +34205,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
         <v>867.8464071162563</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.40697967305371</v>
+        <v>63.40697967305368</v>
       </c>
       <c r="K5" t="n">
         <v>146.2816544973417</v>
       </c>
       <c r="L5" t="n">
-        <v>218.7498344398771</v>
+        <v>218.749834439877</v>
       </c>
       <c r="M5" t="n">
-        <v>275.3906701467102</v>
+        <v>275.3906701467101</v>
       </c>
       <c r="N5" t="n">
-        <v>284.5071916056372</v>
+        <v>284.507191605637</v>
       </c>
       <c r="O5" t="n">
-        <v>255.1821125030714</v>
+        <v>255.1821125030713</v>
       </c>
       <c r="P5" t="n">
         <v>182.9425333574167</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.72288372604149</v>
+        <v>88.72288372604143</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.75683649278926</v>
+        <v>18.75683649278923</v>
       </c>
       <c r="K6" t="n">
         <v>111.0026885100516</v>
@@ -35021,19 +35021,19 @@
         <v>196.0472588956221</v>
       </c>
       <c r="M6" t="n">
-        <v>248.3302962725765</v>
+        <v>248.3302962725764</v>
       </c>
       <c r="N6" t="n">
         <v>269.4570470686363</v>
       </c>
       <c r="O6" t="n">
-        <v>224.0563177862322</v>
+        <v>224.0563177862321</v>
       </c>
       <c r="P6" t="n">
-        <v>160.2965984366699</v>
+        <v>160.2965984366698</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.73060026023936</v>
+        <v>56.73060026023933</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>21.08853578004127</v>
       </c>
       <c r="L7" t="n">
-        <v>57.19394173658111</v>
+        <v>57.19394173658105</v>
       </c>
       <c r="M7" t="n">
-        <v>63.59418734267612</v>
+        <v>63.59418734267609</v>
       </c>
       <c r="N7" t="n">
-        <v>70.01895456215797</v>
+        <v>70.01895456215794</v>
       </c>
       <c r="O7" t="n">
-        <v>44.15556580039254</v>
+        <v>44.15556580039251</v>
       </c>
       <c r="P7" t="n">
-        <v>18.52819835448867</v>
+        <v>18.52819835448864</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312436</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312436</v>
+        <v>57.65947400496688</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295346</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010503</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533528</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295343</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36048,13 +36048,13 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691868</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295346</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295349</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M25" t="n">
         <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O27" t="n">
-        <v>544.4205270745589</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>101.8925903961643</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367765</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
         <v>632.079992146269</v>
@@ -37558,7 +37558,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980852</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L41" t="n">
         <v>632.079992146269</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
         <v>632.079992146269</v>
